--- a/biology/Zoologie/Ophion_annulatus/Ophion_annulatus.xlsx
+++ b/biology/Zoologie/Ophion_annulatus/Ophion_annulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophion annulatus est une espèce fossile d'insectes hyménoptères de la famille des Ichneumonidae, de la sous-famille des Ophioninae et du genre Ophion.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ophion annulatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-Le spécimen holotype Am13 vient des collections du Muséum national d'histoire naturelle de Paris, et provient du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Il est aussi connu au Muséum national d'histoire naturelle de Paris sous la référence B24399[3].
-Étymologie
-L'épithète spécifique latine annulatus signifie « encerclé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ophion annulatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[1],[note 1] : 
-« Bel insecte à tête et thorax noirs, à abdomen brun clair orné d'anneaux noirâtres. ailes claires avec des nervures brunes. Tête noire avec gros yeux saillants, un œil est visible latéralement sous forme d'une bande verticale; antennes longues dépassant la longueur de la tête et du thorax; elles sont filiformes, nombreux segments homonomes; tête comprimée à l'arrière; thorax ovale. Abdomen pétiolé, comprimé, inséré à la base du thorax, 1er article très long, les autres plus courts mais plus larges, le 5e ayant le maximum de largeur, arrondi à l'extrémité. Aucune tarière n'est visible. pattes longues et grêles, fémurs de couleur plus foncée que les tibias et les tarses. ailes longues, atteignant la moitié de l'abdomen; stigma étroit, cellule radiale courte, aréole manque; le 1re abscisse radiale et la nervure aréolaire forment un angles ouvert à l'intérieur; nervure discoïdo-cubitale cassée et émettant un ramellus. »[1].
-Dimensions
-La longueur totale est de 10,5 mm, la tête a une longueur 1 mm, le thorax a une longueur 3 mm , l'abdomen a une longueur 6,5 mm[1].
-Affinités
-« Voisin de Ophion areolatus Cam. qui vit dans le Thibet, le Pendjab et l'Assam. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype Am13 vient des collections du Muséum national d'histoire naturelle de Paris, et provient du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Il est aussi connu au Muséum national d'histoire naturelle de Paris sous la référence B24399.
 </t>
         </is>
       </c>
@@ -580,12 +590,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine annulatus signifie « encerclé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937,[note 1] : 
+« Bel insecte à tête et thorax noirs, à abdomen brun clair orné d'anneaux noirâtres. ailes claires avec des nervures brunes. Tête noire avec gros yeux saillants, un œil est visible latéralement sous forme d'une bande verticale; antennes longues dépassant la longueur de la tête et du thorax; elles sont filiformes, nombreux segments homonomes; tête comprimée à l'arrière; thorax ovale. Abdomen pétiolé, comprimé, inséré à la base du thorax, 1er article très long, les autres plus courts mais plus larges, le 5e ayant le maximum de largeur, arrondi à l'extrémité. Aucune tarière n'est visible. pattes longues et grêles, fémurs de couleur plus foncée que les tibias et les tarses. ailes longues, atteignant la moitié de l'abdomen; stigma étroit, cellule radiale courte, aréole manque; le 1re abscisse radiale et la nervure aréolaire forment un angles ouvert à l'intérieur; nervure discoïdo-cubitale cassée et émettant un ramellus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 10,5 mm, la tête a une longueur 1 mm, le thorax a une longueur 3 mm , l'abdomen a une longueur 6,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Voisin de Ophion areolatus Cam. qui vit dans le Thibet, le Pendjab et l'Assam. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophion_annulatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le g. Ophion est représenté par de nombreuses espèces, plus de 120, répandues dans le monde entier. »[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le g. Ophion est représenté par de nombreuses espèces, plus de 120, répandues dans le monde entier. ».
 </t>
         </is>
       </c>
